--- a/Bank OM Resources/dataset/Bank_dataset_allobjects.xlsx
+++ b/Bank OM Resources/dataset/Bank_dataset_allobjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Bank OM Resources/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B207FE3-1168-C548-A8A7-F9988A78DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C958556A-6695-8546-B07F-3F1997BA5518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{DDB36EB7-69A0-2D41-82FE-3347F41E9788}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​P</t>
+  </si>
+  <si>
+    <t>module OM_name: 0, open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type, one sig class2_name extends Class attrSet = c2_at1 one parent parent in class5_name id = c3_at1 isAbstract = No } one sig c2_at1 extends c2_at1_type, one sig class3_name extends Class attrSet = c3_at1+c3_at2+c3_at3+c3_at4+c3_at5 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at1 extends c3_at1_type one sig c3_at3 extends c3_at3_type one sig c3_at4 extends c3_at4_type one sig c3_at5 extends c3_at5_type, one sig class4_name extends Class attrSet = c4_at1+c4_at2 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type, one sig class5_name extends Class attrSet = c5_at1+c3_at1 id=c5_at1 no parent isAbstract = No } one sig c5_at1 extends c5_at1_type, one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type, one sig class7_name extends Class attrSet=c7_at1 one parent parent in class5_name id=c3_at1 isAbstract = No } one sig c7_at1 extends c7_at1_type, one sig assoc1 extends Association src = class6_name dst = class4_name, src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc2 extends Association src = class6_name dst= Customer src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig assoc3 extends Association src = class3_name dst = class4_name, src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc, } one sig assoc4 extends Association src = class3_name dst = class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } one sig CustomerLoanAssociation extends Association{}{ src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc, } pred show run show ​, Table class1_name : Attribute c1_at1 Primary Key Table class1_name : Attribute c1_at2 Table class2_name : Attribute c2_at1 Primary Key Table class3_name : Attribute c3_at4 Table class3_name : Attribute c3_at5 Table class3_name : Attribute c3_at2 Table class3_name : Attribute c3_at2 Table class4_name : Attribute c4_at1 Primary Key Table class4_name : Attribute c4_at2 Table class5_name : Attribute c3_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table class6_name : Attribute c6_at2 Table class6_name : Attribute c6_at3 Table class7_name : Attribute c7_at1 Table class1_name : Attribute c1_at1 Primary Key Table class4_name : Attribute c4_at1 Primary Key Table class5_name : Attribute c5_at1 Table class6_name : Attribute c6_at1 Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Table Name: class7_name Mapping Strategy for class1_name : map_str2 Mapping Strategy for class8_name : map_str2 Mapping Strategy for class3_name : map_str2 Mapping Strategy for class5_name : map_str2 Mapping Strategy for class6_name : map_str2 Mapping Strategy for class7_name : map_str2 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc5 : assoc_type2, USE OM_name_0 CREATE TABLE `class5_name` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type PRIMARY KEY (`c5_at1`), ); CREATE TABLE `class2_name` ( `c7_at1` c7_at1_type `c5_at1` c5_at1_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type(64) `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`), ); CREATE TABLE `class1_name` ( `c1_at2` c4_at2_type(64) `c1_at1` c1_at1_type PRIMARY KEY (`c1_at1`), ); CREATE TABLE `class3_name` ( `c3_at3` c3_at3_type(64) `c3_at2` c3_at2_type(64) `c3_at5` c3_at5_type `c3_at4` c3_at4_type `c3_at1` c3_at2_type PRIMARY KEY (`c3_at1`), ); CREATE TABLE `assoc5` ( `c3_at1` c3_at2_type `c1_at1` c1_at1_type KEY `FK_assoc5_c3_at1_idx` (`c3_at1`) KEY `FK_assoc5_c1_at1_idx` (`c1_at1`) PRIMARY KEY (`c3_at1`,`c1_at1`), ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64) `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`), ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c6_at1`,`c3_at1`), ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc3_c4_at1_idx` (`c4_at1`) KEY `FK_assoc3_c3_at1_idx` (`c3_at1`) PRIMARY KEY (`c4_at1`,`c3_at1`), ); CREATE TABLE `assoc4` ( `c5_at1` c5_at1_type NOT NULL `c3_at1` c3_at2_type KEY `FK_assoc4_c5_at1_idx` (`c5_at1`) KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c5_at1`,`c3_at1`) ); CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), KEY `FK_assoc1_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c6_at1`,`c4_at1`), ); CREATE TABLE `class8_name` ( `c5_at1` c5_at1_type `c3_at1` c3_at2_type `c2_at1` c2_at1_type PRIMARY KEY (`c3_at1`), ); ALTER TABLE `assoc5` ADD CONSTRAINT `FK_assoc5_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c5_at1` FOREIGN KEY (`c5_at1`) REFERENCES `class5_name` (`c5_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ​NP</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639C844-9E01-6140-86AA-ABA2C81475AC}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,10 +1102,16 @@
       <c r="A61" t="s">
         <v>43</v>
       </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
